--- a/documents/Bolao.xlsx
+++ b/documents/Bolao.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Nome</t>
   </si>
@@ -89,19 +89,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Book Antiqua"/>
@@ -110,6 +97,19 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Book Antiqua"/>
       <family val="1"/>
     </font>
@@ -187,40 +187,40 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -518,11 +518,9 @@
     <col min="5" max="5" width="2" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="1.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="9.140625" style="3"/>
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -533,382 +531,342 @@
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="15">
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="G5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="15">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="16">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="J8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16">
-        <v>2</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="K8" s="16">
+        <v>5</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="15">
-        <v>2</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="16">
-        <v>3</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="15">
-        <v>3</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="16">
-        <v>2</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="15">
-        <v>1</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="15">
-        <v>2</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="15">
-        <v>1</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
